--- a/pred_ohlcv/54/2019-10-19 REP ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-19 REP ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9855</v>
+        <v>9825</v>
       </c>
       <c r="C2" t="n">
-        <v>9855</v>
+        <v>9825</v>
       </c>
       <c r="D2" t="n">
-        <v>9855</v>
+        <v>9825</v>
       </c>
       <c r="E2" t="n">
-        <v>9855</v>
+        <v>9825</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1383</v>
+        <v>611.1058</v>
       </c>
       <c r="G2" t="n">
-        <v>9810.333333333334</v>
+        <v>9810</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,7 +442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9825</v>
+        <v>9855</v>
       </c>
       <c r="C3" t="n">
         <v>9855</v>
@@ -443,15 +451,18 @@
         <v>9855</v>
       </c>
       <c r="E3" t="n">
-        <v>9825</v>
+        <v>9855</v>
       </c>
       <c r="F3" t="n">
-        <v>12.3068</v>
+        <v>0.1383</v>
       </c>
       <c r="G3" t="n">
-        <v>9810.666666666666</v>
+        <v>9810.333333333334</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,25 +471,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9820</v>
+        <v>9825</v>
       </c>
       <c r="C4" t="n">
-        <v>9820</v>
+        <v>9855</v>
       </c>
       <c r="D4" t="n">
-        <v>9820</v>
+        <v>9855</v>
       </c>
       <c r="E4" t="n">
-        <v>9820</v>
+        <v>9825</v>
       </c>
       <c r="F4" t="n">
-        <v>31.5641</v>
+        <v>12.3068</v>
       </c>
       <c r="G4" t="n">
-        <v>9811.333333333334</v>
+        <v>9810.666666666666</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -498,12 +512,15 @@
         <v>9820</v>
       </c>
       <c r="F5" t="n">
-        <v>6.4136</v>
+        <v>31.5641</v>
       </c>
       <c r="G5" t="n">
-        <v>9812.166666666666</v>
+        <v>9811.333333333334</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9830</v>
+        <v>9820</v>
       </c>
       <c r="C6" t="n">
-        <v>9830</v>
+        <v>9820</v>
       </c>
       <c r="D6" t="n">
-        <v>9830</v>
+        <v>9820</v>
       </c>
       <c r="E6" t="n">
-        <v>9830</v>
+        <v>9820</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1251</v>
+        <v>6.4136</v>
       </c>
       <c r="G6" t="n">
-        <v>9813.166666666666</v>
+        <v>9812.166666666666</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9810</v>
+        <v>9830</v>
       </c>
       <c r="C7" t="n">
-        <v>9810</v>
+        <v>9830</v>
       </c>
       <c r="D7" t="n">
-        <v>9810</v>
+        <v>9830</v>
       </c>
       <c r="E7" t="n">
-        <v>9810</v>
+        <v>9830</v>
       </c>
       <c r="F7" t="n">
-        <v>4.965</v>
+        <v>0.1251</v>
       </c>
       <c r="G7" t="n">
-        <v>9813.833333333334</v>
+        <v>9813.166666666666</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="C8" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="D8" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="E8" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1269</v>
+        <v>4.965</v>
       </c>
       <c r="G8" t="n">
-        <v>9815</v>
+        <v>9813.833333333334</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -602,12 +628,15 @@
         <v>9830</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3173</v>
+        <v>0.1269</v>
       </c>
       <c r="G9" t="n">
-        <v>9816.25</v>
+        <v>9815</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9810</v>
+        <v>9830</v>
       </c>
       <c r="C10" t="n">
-        <v>9810</v>
+        <v>9830</v>
       </c>
       <c r="D10" t="n">
-        <v>9810</v>
+        <v>9830</v>
       </c>
       <c r="E10" t="n">
-        <v>9810</v>
+        <v>9830</v>
       </c>
       <c r="F10" t="n">
-        <v>9.4779</v>
+        <v>0.3173</v>
       </c>
       <c r="G10" t="n">
-        <v>9817.25</v>
+        <v>9816.25</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9805</v>
+        <v>9810</v>
       </c>
       <c r="C11" t="n">
-        <v>9800</v>
+        <v>9810</v>
       </c>
       <c r="D11" t="n">
-        <v>9805</v>
+        <v>9810</v>
       </c>
       <c r="E11" t="n">
-        <v>9800</v>
+        <v>9810</v>
       </c>
       <c r="F11" t="n">
-        <v>135.2402</v>
+        <v>9.4779</v>
       </c>
       <c r="G11" t="n">
-        <v>9818.333333333334</v>
+        <v>9817.25</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="C12" t="n">
         <v>9800</v>
       </c>
       <c r="D12" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="E12" t="n">
         <v>9800</v>
       </c>
       <c r="F12" t="n">
-        <v>44.71</v>
+        <v>135.2402</v>
       </c>
       <c r="G12" t="n">
-        <v>9818.916666666666</v>
+        <v>9818.333333333334</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9825</v>
+        <v>9800</v>
       </c>
       <c r="C13" t="n">
-        <v>9825</v>
+        <v>9800</v>
       </c>
       <c r="D13" t="n">
-        <v>9825</v>
+        <v>9800</v>
       </c>
       <c r="E13" t="n">
-        <v>9825</v>
+        <v>9800</v>
       </c>
       <c r="F13" t="n">
-        <v>1.1671</v>
+        <v>44.71</v>
       </c>
       <c r="G13" t="n">
-        <v>9819.583333333334</v>
+        <v>9818.916666666666</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9820</v>
+        <v>9825</v>
       </c>
       <c r="C14" t="n">
-        <v>9820</v>
+        <v>9825</v>
       </c>
       <c r="D14" t="n">
-        <v>9820</v>
+        <v>9825</v>
       </c>
       <c r="E14" t="n">
-        <v>9820</v>
+        <v>9825</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1</v>
+        <v>1.1671</v>
       </c>
       <c r="G14" t="n">
-        <v>9821.166666666666</v>
+        <v>9819.583333333334</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9800</v>
+        <v>9820</v>
       </c>
       <c r="C15" t="n">
-        <v>9800</v>
+        <v>9820</v>
       </c>
       <c r="D15" t="n">
-        <v>9800</v>
+        <v>9820</v>
       </c>
       <c r="E15" t="n">
-        <v>9800</v>
+        <v>9820</v>
       </c>
       <c r="F15" t="n">
-        <v>61.7474</v>
+        <v>0.1</v>
       </c>
       <c r="G15" t="n">
         <v>9821.166666666666</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -784,12 +831,15 @@
         <v>9800</v>
       </c>
       <c r="F16" t="n">
-        <v>21.475</v>
+        <v>61.7474</v>
       </c>
       <c r="G16" t="n">
-        <v>9821.083333333334</v>
+        <v>9821.166666666666</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,12 +860,15 @@
         <v>9800</v>
       </c>
       <c r="F17" t="n">
-        <v>5.7422</v>
+        <v>21.475</v>
       </c>
       <c r="G17" t="n">
-        <v>9821</v>
+        <v>9821.083333333334</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,12 +889,15 @@
         <v>9800</v>
       </c>
       <c r="F18" t="n">
-        <v>4.1346</v>
+        <v>5.7422</v>
       </c>
       <c r="G18" t="n">
-        <v>9821.25</v>
+        <v>9821</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -862,12 +918,15 @@
         <v>9800</v>
       </c>
       <c r="F19" t="n">
-        <v>323.1039</v>
+        <v>4.1346</v>
       </c>
       <c r="G19" t="n">
         <v>9821.25</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +947,15 @@
         <v>9800</v>
       </c>
       <c r="F20" t="n">
-        <v>34</v>
+        <v>323.1039</v>
       </c>
       <c r="G20" t="n">
-        <v>9821.083333333334</v>
+        <v>9821.25</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9825</v>
+        <v>9800</v>
       </c>
       <c r="C21" t="n">
-        <v>9825</v>
+        <v>9800</v>
       </c>
       <c r="D21" t="n">
-        <v>9825</v>
+        <v>9800</v>
       </c>
       <c r="E21" t="n">
-        <v>9825</v>
+        <v>9800</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2137404580152672</v>
+        <v>34</v>
       </c>
       <c r="G21" t="n">
-        <v>9821.5</v>
+        <v>9821.083333333334</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9800</v>
+        <v>9825</v>
       </c>
       <c r="C22" t="n">
-        <v>9800</v>
+        <v>9825</v>
       </c>
       <c r="D22" t="n">
-        <v>9800</v>
+        <v>9825</v>
       </c>
       <c r="E22" t="n">
-        <v>9800</v>
+        <v>9825</v>
       </c>
       <c r="F22" t="n">
-        <v>0.15</v>
+        <v>0.2137404580152672</v>
       </c>
       <c r="G22" t="n">
-        <v>9821.416666666666</v>
+        <v>9821.5</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="C23" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="D23" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="E23" t="n">
-        <v>9820</v>
+        <v>9800</v>
       </c>
       <c r="F23" t="n">
-        <v>4.8748</v>
+        <v>0.15</v>
       </c>
       <c r="G23" t="n">
-        <v>9821.5</v>
+        <v>9821.416666666666</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9805</v>
+        <v>9820</v>
       </c>
       <c r="C24" t="n">
-        <v>9805</v>
+        <v>9820</v>
       </c>
       <c r="D24" t="n">
-        <v>9805</v>
+        <v>9820</v>
       </c>
       <c r="E24" t="n">
-        <v>9805</v>
+        <v>9820</v>
       </c>
       <c r="F24" t="n">
-        <v>2.45</v>
+        <v>4.8748</v>
       </c>
       <c r="G24" t="n">
-        <v>9821.25</v>
+        <v>9821.5</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="C25" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="D25" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="E25" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2283</v>
+        <v>2.45</v>
       </c>
       <c r="G25" t="n">
-        <v>9820.75</v>
+        <v>9821.25</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9760</v>
+        <v>9800</v>
       </c>
       <c r="C26" t="n">
-        <v>9760</v>
+        <v>9800</v>
       </c>
       <c r="D26" t="n">
-        <v>9760</v>
+        <v>9800</v>
       </c>
       <c r="E26" t="n">
-        <v>9760</v>
+        <v>9800</v>
       </c>
       <c r="F26" t="n">
-        <v>43.7945</v>
+        <v>0.2283</v>
       </c>
       <c r="G26" t="n">
-        <v>9819.583333333334</v>
+        <v>9820.75</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9775</v>
+        <v>9760</v>
       </c>
       <c r="C27" t="n">
-        <v>9775</v>
+        <v>9760</v>
       </c>
       <c r="D27" t="n">
-        <v>9775</v>
+        <v>9760</v>
       </c>
       <c r="E27" t="n">
-        <v>9775</v>
+        <v>9760</v>
       </c>
       <c r="F27" t="n">
-        <v>1.7128</v>
+        <v>43.7945</v>
       </c>
       <c r="G27" t="n">
-        <v>9818.916666666666</v>
+        <v>9819.583333333334</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9745</v>
+        <v>9775</v>
       </c>
       <c r="C28" t="n">
-        <v>9740</v>
+        <v>9775</v>
       </c>
       <c r="D28" t="n">
-        <v>9745</v>
+        <v>9775</v>
       </c>
       <c r="E28" t="n">
-        <v>9740</v>
+        <v>9775</v>
       </c>
       <c r="F28" t="n">
-        <v>557.5115</v>
+        <v>1.7128</v>
       </c>
       <c r="G28" t="n">
-        <v>9818.25</v>
+        <v>9818.916666666666</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9775</v>
+        <v>9745</v>
       </c>
       <c r="C29" t="n">
-        <v>9775</v>
+        <v>9740</v>
       </c>
       <c r="D29" t="n">
-        <v>9775</v>
+        <v>9745</v>
       </c>
       <c r="E29" t="n">
-        <v>9775</v>
+        <v>9740</v>
       </c>
       <c r="F29" t="n">
-        <v>27.6191</v>
+        <v>557.5115</v>
       </c>
       <c r="G29" t="n">
-        <v>9818.333333333334</v>
+        <v>9818.25</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9780</v>
+        <v>9775</v>
       </c>
       <c r="C30" t="n">
-        <v>9780</v>
+        <v>9775</v>
       </c>
       <c r="D30" t="n">
-        <v>9780</v>
+        <v>9775</v>
       </c>
       <c r="E30" t="n">
-        <v>9780</v>
+        <v>9775</v>
       </c>
       <c r="F30" t="n">
-        <v>2.5</v>
+        <v>27.6191</v>
       </c>
       <c r="G30" t="n">
-        <v>9818.833333333334</v>
+        <v>9818.333333333334</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9770</v>
+        <v>9780</v>
       </c>
       <c r="C31" t="n">
-        <v>9770</v>
+        <v>9780</v>
       </c>
       <c r="D31" t="n">
-        <v>9770</v>
+        <v>9780</v>
       </c>
       <c r="E31" t="n">
-        <v>9770</v>
+        <v>9780</v>
       </c>
       <c r="F31" t="n">
-        <v>5.483</v>
+        <v>2.5</v>
       </c>
       <c r="G31" t="n">
-        <v>9818.083333333334</v>
+        <v>9818.833333333334</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9760</v>
+        <v>9770</v>
       </c>
       <c r="C32" t="n">
-        <v>9760</v>
+        <v>9770</v>
       </c>
       <c r="D32" t="n">
-        <v>9760</v>
+        <v>9770</v>
       </c>
       <c r="E32" t="n">
-        <v>9760</v>
+        <v>9770</v>
       </c>
       <c r="F32" t="n">
-        <v>6.3906</v>
+        <v>5.483</v>
       </c>
       <c r="G32" t="n">
-        <v>9817.25</v>
+        <v>9818.083333333334</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9765</v>
+        <v>9760</v>
       </c>
       <c r="C33" t="n">
-        <v>9770</v>
+        <v>9760</v>
       </c>
       <c r="D33" t="n">
-        <v>9770</v>
+        <v>9760</v>
       </c>
       <c r="E33" t="n">
-        <v>9765</v>
+        <v>9760</v>
       </c>
       <c r="F33" t="n">
-        <v>23.1929</v>
+        <v>6.3906</v>
       </c>
       <c r="G33" t="n">
-        <v>9816.583333333334</v>
+        <v>9817.25</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,7 +1341,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9770</v>
+        <v>9765</v>
       </c>
       <c r="C34" t="n">
         <v>9770</v>
@@ -1249,15 +1350,18 @@
         <v>9770</v>
       </c>
       <c r="E34" t="n">
-        <v>9770</v>
+        <v>9765</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0001</v>
+        <v>23.1929</v>
       </c>
       <c r="G34" t="n">
-        <v>9815.916666666666</v>
+        <v>9816.583333333334</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9775</v>
+        <v>9770</v>
       </c>
       <c r="C35" t="n">
-        <v>9775</v>
+        <v>9770</v>
       </c>
       <c r="D35" t="n">
-        <v>9775</v>
+        <v>9770</v>
       </c>
       <c r="E35" t="n">
-        <v>9775</v>
+        <v>9770</v>
       </c>
       <c r="F35" t="n">
-        <v>28.1455</v>
+        <v>0.0001</v>
       </c>
       <c r="G35" t="n">
-        <v>9815.333333333334</v>
+        <v>9815.916666666666</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9770</v>
+        <v>9775</v>
       </c>
       <c r="C36" t="n">
-        <v>9770</v>
+        <v>9775</v>
       </c>
       <c r="D36" t="n">
-        <v>9770</v>
+        <v>9775</v>
       </c>
       <c r="E36" t="n">
-        <v>9770</v>
+        <v>9775</v>
       </c>
       <c r="F36" t="n">
-        <v>8.135199999999999</v>
+        <v>28.1455</v>
       </c>
       <c r="G36" t="n">
-        <v>9814.666666666666</v>
+        <v>9815.333333333334</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9745</v>
+        <v>9770</v>
       </c>
       <c r="C37" t="n">
-        <v>9745</v>
+        <v>9770</v>
       </c>
       <c r="D37" t="n">
-        <v>9745</v>
+        <v>9770</v>
       </c>
       <c r="E37" t="n">
-        <v>9745</v>
+        <v>9770</v>
       </c>
       <c r="F37" t="n">
-        <v>11.573</v>
+        <v>8.135199999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>9813.333333333334</v>
+        <v>9814.666666666666</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9740</v>
+        <v>9745</v>
       </c>
       <c r="C38" t="n">
-        <v>9735</v>
+        <v>9745</v>
       </c>
       <c r="D38" t="n">
-        <v>9740</v>
+        <v>9745</v>
       </c>
       <c r="E38" t="n">
-        <v>9735</v>
+        <v>9745</v>
       </c>
       <c r="F38" t="n">
-        <v>56.8512</v>
+        <v>11.573</v>
       </c>
       <c r="G38" t="n">
-        <v>9812.083333333334</v>
+        <v>9813.333333333334</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9735</v>
+        <v>9740</v>
       </c>
       <c r="C39" t="n">
         <v>9735</v>
       </c>
       <c r="D39" t="n">
-        <v>9735</v>
+        <v>9740</v>
       </c>
       <c r="E39" t="n">
         <v>9735</v>
       </c>
       <c r="F39" t="n">
-        <v>4.7852</v>
+        <v>56.8512</v>
       </c>
       <c r="G39" t="n">
-        <v>9810.833333333334</v>
+        <v>9812.083333333334</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>9735</v>
       </c>
       <c r="F40" t="n">
-        <v>62.8512</v>
+        <v>4.7852</v>
       </c>
       <c r="G40" t="n">
-        <v>9809.583333333334</v>
+        <v>9810.833333333334</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1425,21 +1547,24 @@
         <v>9735</v>
       </c>
       <c r="C41" t="n">
-        <v>9730</v>
+        <v>9735</v>
       </c>
       <c r="D41" t="n">
         <v>9735</v>
       </c>
       <c r="E41" t="n">
-        <v>9730</v>
+        <v>9735</v>
       </c>
       <c r="F41" t="n">
-        <v>14.8354</v>
+        <v>62.8512</v>
       </c>
       <c r="G41" t="n">
-        <v>9808.416666666666</v>
+        <v>9809.583333333334</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>9735</v>
+      </c>
+      <c r="C42" t="n">
         <v>9730</v>
       </c>
-      <c r="C42" t="n">
-        <v>9745</v>
-      </c>
       <c r="D42" t="n">
-        <v>9760</v>
+        <v>9735</v>
       </c>
       <c r="E42" t="n">
-        <v>9720</v>
+        <v>9730</v>
       </c>
       <c r="F42" t="n">
-        <v>81.7848</v>
+        <v>14.8354</v>
       </c>
       <c r="G42" t="n">
-        <v>9807.5</v>
+        <v>9808.416666666666</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9760</v>
+        <v>9730</v>
       </c>
       <c r="C43" t="n">
-        <v>9760</v>
+        <v>9745</v>
       </c>
       <c r="D43" t="n">
         <v>9760</v>
       </c>
       <c r="E43" t="n">
-        <v>9760</v>
+        <v>9720</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1197</v>
+        <v>81.7848</v>
       </c>
       <c r="G43" t="n">
-        <v>9806.833333333334</v>
+        <v>9807.5</v>
       </c>
       <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9765</v>
+        <v>9760</v>
       </c>
       <c r="C44" t="n">
-        <v>9765</v>
+        <v>9760</v>
       </c>
       <c r="D44" t="n">
-        <v>9765</v>
+        <v>9760</v>
       </c>
       <c r="E44" t="n">
-        <v>9765</v>
+        <v>9760</v>
       </c>
       <c r="F44" t="n">
-        <v>9.434699999999999</v>
+        <v>0.1197</v>
       </c>
       <c r="G44" t="n">
-        <v>9805.916666666666</v>
+        <v>9806.833333333334</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,7 +1660,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9730</v>
+        <v>9765</v>
       </c>
       <c r="C45" t="n">
         <v>9765</v>
@@ -1535,15 +1669,18 @@
         <v>9765</v>
       </c>
       <c r="E45" t="n">
-        <v>9700</v>
+        <v>9765</v>
       </c>
       <c r="F45" t="n">
-        <v>540.5271</v>
+        <v>9.434699999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>9804.75</v>
+        <v>9805.916666666666</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9740</v>
+        <v>9730</v>
       </c>
       <c r="C46" t="n">
-        <v>9750</v>
+        <v>9765</v>
       </c>
       <c r="D46" t="n">
-        <v>9750</v>
+        <v>9765</v>
       </c>
       <c r="E46" t="n">
-        <v>9740</v>
+        <v>9700</v>
       </c>
       <c r="F46" t="n">
-        <v>50</v>
+        <v>540.5271</v>
       </c>
       <c r="G46" t="n">
-        <v>9803.666666666666</v>
+        <v>9804.75</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9715</v>
+        <v>9740</v>
       </c>
       <c r="C47" t="n">
-        <v>9710</v>
+        <v>9750</v>
       </c>
       <c r="D47" t="n">
-        <v>9715</v>
+        <v>9750</v>
       </c>
       <c r="E47" t="n">
-        <v>9710</v>
+        <v>9740</v>
       </c>
       <c r="F47" t="n">
-        <v>17.7465</v>
+        <v>50</v>
       </c>
       <c r="G47" t="n">
-        <v>9801.166666666666</v>
+        <v>9803.666666666666</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1607,21 +1750,24 @@
         <v>9715</v>
       </c>
       <c r="C48" t="n">
-        <v>9715</v>
+        <v>9710</v>
       </c>
       <c r="D48" t="n">
         <v>9715</v>
       </c>
       <c r="E48" t="n">
-        <v>9715</v>
+        <v>9710</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>17.7465</v>
       </c>
       <c r="G48" t="n">
-        <v>9798.75</v>
+        <v>9801.166666666666</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9735</v>
+        <v>9715</v>
       </c>
       <c r="C49" t="n">
-        <v>9740</v>
+        <v>9715</v>
       </c>
       <c r="D49" t="n">
-        <v>9740</v>
+        <v>9715</v>
       </c>
       <c r="E49" t="n">
-        <v>9735</v>
+        <v>9715</v>
       </c>
       <c r="F49" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>9796.75</v>
+        <v>9798.75</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9750</v>
+        <v>9735</v>
       </c>
       <c r="C50" t="n">
-        <v>9750</v>
+        <v>9740</v>
       </c>
       <c r="D50" t="n">
-        <v>9750</v>
+        <v>9740</v>
       </c>
       <c r="E50" t="n">
-        <v>9750</v>
+        <v>9735</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1</v>
+        <v>50</v>
       </c>
       <c r="G50" t="n">
-        <v>9794.5</v>
+        <v>9796.75</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9740</v>
+        <v>9750</v>
       </c>
       <c r="C51" t="n">
-        <v>9740</v>
+        <v>9750</v>
       </c>
       <c r="D51" t="n">
-        <v>9740</v>
+        <v>9750</v>
       </c>
       <c r="E51" t="n">
-        <v>9740</v>
+        <v>9750</v>
       </c>
       <c r="F51" t="n">
-        <v>6.2155</v>
+        <v>0.1</v>
       </c>
       <c r="G51" t="n">
-        <v>9792.416666666666</v>
+        <v>9794.5</v>
       </c>
       <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,12 +1875,15 @@
         <v>9740</v>
       </c>
       <c r="F52" t="n">
-        <v>10.5956</v>
+        <v>6.2155</v>
       </c>
       <c r="G52" t="n">
-        <v>9790.416666666666</v>
+        <v>9792.416666666666</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9755</v>
+        <v>9740</v>
       </c>
       <c r="C53" t="n">
-        <v>9755</v>
+        <v>9740</v>
       </c>
       <c r="D53" t="n">
-        <v>9755</v>
+        <v>9740</v>
       </c>
       <c r="E53" t="n">
-        <v>9755</v>
+        <v>9740</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>10.5956</v>
       </c>
       <c r="G53" t="n">
-        <v>9788.666666666666</v>
+        <v>9790.416666666666</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9750</v>
+        <v>9755</v>
       </c>
       <c r="C54" t="n">
-        <v>9745</v>
+        <v>9755</v>
       </c>
       <c r="D54" t="n">
-        <v>9750</v>
+        <v>9755</v>
       </c>
       <c r="E54" t="n">
-        <v>9745</v>
+        <v>9755</v>
       </c>
       <c r="F54" t="n">
-        <v>34.2553</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>9786.75</v>
+        <v>9788.666666666666</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9765</v>
+        <v>9750</v>
       </c>
       <c r="C55" t="n">
-        <v>9765</v>
+        <v>9745</v>
       </c>
       <c r="D55" t="n">
-        <v>9765</v>
+        <v>9750</v>
       </c>
       <c r="E55" t="n">
-        <v>9765</v>
+        <v>9745</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1137</v>
+        <v>34.2553</v>
       </c>
       <c r="G55" t="n">
-        <v>9785.166666666666</v>
+        <v>9786.75</v>
       </c>
       <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9730</v>
+        <v>9765</v>
       </c>
       <c r="C56" t="n">
-        <v>9730</v>
+        <v>9765</v>
       </c>
       <c r="D56" t="n">
-        <v>9730</v>
+        <v>9765</v>
       </c>
       <c r="E56" t="n">
-        <v>9730</v>
+        <v>9765</v>
       </c>
       <c r="F56" t="n">
-        <v>13</v>
+        <v>0.1137</v>
       </c>
       <c r="G56" t="n">
-        <v>9783</v>
+        <v>9785.166666666666</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9770</v>
+        <v>9730</v>
       </c>
       <c r="C57" t="n">
-        <v>9770</v>
+        <v>9730</v>
       </c>
       <c r="D57" t="n">
-        <v>9770</v>
+        <v>9730</v>
       </c>
       <c r="E57" t="n">
-        <v>9770</v>
+        <v>9730</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G57" t="n">
-        <v>9781.75</v>
+        <v>9783</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1876,12 +2049,15 @@
         <v>9770</v>
       </c>
       <c r="F58" t="n">
-        <v>6.0177</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>9781.083333333334</v>
+        <v>9781.75</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9790</v>
+        <v>9770</v>
       </c>
       <c r="C59" t="n">
-        <v>9790</v>
+        <v>9770</v>
       </c>
       <c r="D59" t="n">
-        <v>9790</v>
+        <v>9770</v>
       </c>
       <c r="E59" t="n">
-        <v>9790</v>
+        <v>9770</v>
       </c>
       <c r="F59" t="n">
-        <v>22.5957</v>
+        <v>6.0177</v>
       </c>
       <c r="G59" t="n">
-        <v>9780.583333333334</v>
+        <v>9781.083333333334</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1928,12 +2107,15 @@
         <v>9790</v>
       </c>
       <c r="F60" t="n">
-        <v>23.197</v>
+        <v>22.5957</v>
       </c>
       <c r="G60" t="n">
-        <v>9780</v>
+        <v>9780.583333333334</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,12 +2136,15 @@
         <v>9790</v>
       </c>
       <c r="F61" t="n">
-        <v>6.348</v>
+        <v>23.197</v>
       </c>
       <c r="G61" t="n">
-        <v>9779.416666666666</v>
+        <v>9780</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1971,21 +2156,24 @@
         <v>9790</v>
       </c>
       <c r="C62" t="n">
-        <v>9800</v>
+        <v>9790</v>
       </c>
       <c r="D62" t="n">
-        <v>9800</v>
+        <v>9790</v>
       </c>
       <c r="E62" t="n">
         <v>9790</v>
       </c>
       <c r="F62" t="n">
-        <v>26.1783</v>
+        <v>6.348</v>
       </c>
       <c r="G62" t="n">
-        <v>9778.5</v>
+        <v>9779.416666666666</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9810</v>
+        <v>9790</v>
       </c>
       <c r="C63" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="D63" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="E63" t="n">
-        <v>9810</v>
+        <v>9790</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3029561671763507</v>
+        <v>26.1783</v>
       </c>
       <c r="G63" t="n">
-        <v>9777.75</v>
+        <v>9778.5</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9780</v>
+        <v>9810</v>
       </c>
       <c r="C64" t="n">
-        <v>9805</v>
+        <v>9810</v>
       </c>
       <c r="D64" t="n">
-        <v>9805</v>
+        <v>9810</v>
       </c>
       <c r="E64" t="n">
-        <v>9775</v>
+        <v>9810</v>
       </c>
       <c r="F64" t="n">
-        <v>85.62260000000001</v>
+        <v>0.3029561671763507</v>
       </c>
       <c r="G64" t="n">
-        <v>9777.5</v>
+        <v>9777.75</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9820</v>
+        <v>9780</v>
       </c>
       <c r="C65" t="n">
-        <v>9825</v>
+        <v>9805</v>
       </c>
       <c r="D65" t="n">
-        <v>9825</v>
+        <v>9805</v>
       </c>
       <c r="E65" t="n">
-        <v>9820</v>
+        <v>9775</v>
       </c>
       <c r="F65" t="n">
-        <v>128.461</v>
+        <v>85.62260000000001</v>
       </c>
       <c r="G65" t="n">
-        <v>9777.583333333334</v>
+        <v>9777.5</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9805</v>
+        <v>9820</v>
       </c>
       <c r="C66" t="n">
-        <v>9805</v>
+        <v>9825</v>
       </c>
       <c r="D66" t="n">
-        <v>9805</v>
+        <v>9825</v>
       </c>
       <c r="E66" t="n">
-        <v>9805</v>
+        <v>9820</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3029</v>
+        <v>128.461</v>
       </c>
       <c r="G66" t="n">
-        <v>9777.166666666666</v>
+        <v>9777.583333333334</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9825</v>
+        <v>9805</v>
       </c>
       <c r="C67" t="n">
-        <v>9825</v>
+        <v>9805</v>
       </c>
       <c r="D67" t="n">
-        <v>9825</v>
+        <v>9805</v>
       </c>
       <c r="E67" t="n">
-        <v>9825</v>
+        <v>9805</v>
       </c>
       <c r="F67" t="n">
-        <v>3.704</v>
+        <v>0.3029</v>
       </c>
       <c r="G67" t="n">
-        <v>9777.416666666666</v>
+        <v>9777.166666666666</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9810</v>
+        <v>9825</v>
       </c>
       <c r="C68" t="n">
-        <v>9815</v>
+        <v>9825</v>
       </c>
       <c r="D68" t="n">
-        <v>9815</v>
+        <v>9825</v>
       </c>
       <c r="E68" t="n">
-        <v>9810</v>
+        <v>9825</v>
       </c>
       <c r="F68" t="n">
-        <v>60.845</v>
+        <v>3.704</v>
       </c>
       <c r="G68" t="n">
-        <v>9777.166666666666</v>
+        <v>9777.416666666666</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9820</v>
+        <v>9810</v>
       </c>
       <c r="C69" t="n">
-        <v>9825</v>
+        <v>9815</v>
       </c>
       <c r="D69" t="n">
-        <v>9825</v>
+        <v>9815</v>
       </c>
       <c r="E69" t="n">
-        <v>9820</v>
+        <v>9810</v>
       </c>
       <c r="F69" t="n">
-        <v>746.1</v>
+        <v>60.845</v>
       </c>
       <c r="G69" t="n">
-        <v>9777.083333333334</v>
+        <v>9777.166666666666</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2179,21 +2388,24 @@
         <v>9820</v>
       </c>
       <c r="C70" t="n">
-        <v>9820</v>
+        <v>9825</v>
       </c>
       <c r="D70" t="n">
-        <v>9820</v>
+        <v>9825</v>
       </c>
       <c r="E70" t="n">
         <v>9820</v>
       </c>
       <c r="F70" t="n">
-        <v>52.3079</v>
+        <v>746.1</v>
       </c>
       <c r="G70" t="n">
-        <v>9777.25</v>
+        <v>9777.083333333334</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,25 +2414,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9795</v>
+        <v>9820</v>
       </c>
       <c r="C71" t="n">
-        <v>9795</v>
+        <v>9820</v>
       </c>
       <c r="D71" t="n">
-        <v>9795</v>
+        <v>9820</v>
       </c>
       <c r="E71" t="n">
-        <v>9795</v>
+        <v>9820</v>
       </c>
       <c r="F71" t="n">
-        <v>35</v>
+        <v>52.3079</v>
       </c>
       <c r="G71" t="n">
-        <v>9777.166666666666</v>
+        <v>9777.25</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9810</v>
+        <v>9795</v>
       </c>
       <c r="C72" t="n">
-        <v>9810</v>
+        <v>9795</v>
       </c>
       <c r="D72" t="n">
-        <v>9810</v>
+        <v>9795</v>
       </c>
       <c r="E72" t="n">
-        <v>9810</v>
+        <v>9795</v>
       </c>
       <c r="F72" t="n">
-        <v>8.4</v>
+        <v>35</v>
       </c>
       <c r="G72" t="n">
-        <v>9777.333333333334</v>
+        <v>9777.166666666666</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9790</v>
+        <v>9810</v>
       </c>
       <c r="C73" t="n">
-        <v>9790</v>
+        <v>9810</v>
       </c>
       <c r="D73" t="n">
-        <v>9790</v>
+        <v>9810</v>
       </c>
       <c r="E73" t="n">
-        <v>9790</v>
+        <v>9810</v>
       </c>
       <c r="F73" t="n">
-        <v>25.6125</v>
+        <v>8.4</v>
       </c>
       <c r="G73" t="n">
-        <v>9776.75</v>
+        <v>9777.333333333334</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2283,21 +2504,24 @@
         <v>9790</v>
       </c>
       <c r="C74" t="n">
-        <v>9785</v>
+        <v>9790</v>
       </c>
       <c r="D74" t="n">
         <v>9790</v>
       </c>
       <c r="E74" t="n">
-        <v>9785</v>
+        <v>9790</v>
       </c>
       <c r="F74" t="n">
-        <v>50</v>
+        <v>25.6125</v>
       </c>
       <c r="G74" t="n">
-        <v>9776.166666666666</v>
+        <v>9776.75</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9820</v>
+        <v>9790</v>
       </c>
       <c r="C75" t="n">
-        <v>9820</v>
+        <v>9785</v>
       </c>
       <c r="D75" t="n">
-        <v>9820</v>
+        <v>9790</v>
       </c>
       <c r="E75" t="n">
-        <v>9820</v>
+        <v>9785</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1074</v>
+        <v>50</v>
       </c>
       <c r="G75" t="n">
-        <v>9776.5</v>
+        <v>9776.166666666666</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>9820</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.1074</v>
       </c>
       <c r="G76" t="n">
-        <v>9776.833333333334</v>
+        <v>9776.5</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9805</v>
+        <v>9820</v>
       </c>
       <c r="C77" t="n">
-        <v>9805</v>
+        <v>9820</v>
       </c>
       <c r="D77" t="n">
-        <v>9805</v>
+        <v>9820</v>
       </c>
       <c r="E77" t="n">
-        <v>9805</v>
+        <v>9820</v>
       </c>
       <c r="F77" t="n">
-        <v>6.8917</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G77" t="n">
-        <v>9776.916666666666</v>
+        <v>9776.833333333334</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9820</v>
+        <v>9805</v>
       </c>
       <c r="C78" t="n">
-        <v>9825</v>
+        <v>9805</v>
       </c>
       <c r="D78" t="n">
-        <v>9825</v>
+        <v>9805</v>
       </c>
       <c r="E78" t="n">
-        <v>9820</v>
+        <v>9805</v>
       </c>
       <c r="F78" t="n">
-        <v>34.98715954198473</v>
+        <v>6.8917</v>
       </c>
       <c r="G78" t="n">
-        <v>9777.333333333334</v>
+        <v>9776.916666666666</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,7 +2646,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9825</v>
+        <v>9820</v>
       </c>
       <c r="C79" t="n">
         <v>9825</v>
@@ -2419,15 +2655,18 @@
         <v>9825</v>
       </c>
       <c r="E79" t="n">
-        <v>9825</v>
+        <v>9820</v>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>34.98715954198473</v>
       </c>
       <c r="G79" t="n">
-        <v>9777.75</v>
+        <v>9777.333333333334</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9830</v>
+        <v>9825</v>
       </c>
       <c r="C80" t="n">
-        <v>9830</v>
+        <v>9825</v>
       </c>
       <c r="D80" t="n">
-        <v>9830</v>
+        <v>9825</v>
       </c>
       <c r="E80" t="n">
-        <v>9830</v>
+        <v>9825</v>
       </c>
       <c r="F80" t="n">
-        <v>6.248</v>
+        <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>9778.25</v>
+        <v>9777.75</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2465,21 +2707,24 @@
         <v>9830</v>
       </c>
       <c r="C81" t="n">
-        <v>9810</v>
+        <v>9830</v>
       </c>
       <c r="D81" t="n">
         <v>9830</v>
       </c>
       <c r="E81" t="n">
-        <v>9810</v>
+        <v>9830</v>
       </c>
       <c r="F81" t="n">
-        <v>12.1729</v>
+        <v>6.248</v>
       </c>
       <c r="G81" t="n">
-        <v>9778</v>
+        <v>9778.25</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9810</v>
+        <v>9830</v>
       </c>
       <c r="C82" t="n">
         <v>9810</v>
       </c>
       <c r="D82" t="n">
-        <v>9810</v>
+        <v>9830</v>
       </c>
       <c r="E82" t="n">
         <v>9810</v>
       </c>
       <c r="F82" t="n">
-        <v>8.147399999999999</v>
+        <v>12.1729</v>
       </c>
       <c r="G82" t="n">
-        <v>9778.166666666666</v>
+        <v>9778</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="C83" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="D83" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="E83" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1019</v>
+        <v>8.147399999999999</v>
       </c>
       <c r="G83" t="n">
-        <v>9778.333333333334</v>
+        <v>9778.166666666666</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2543,21 +2794,24 @@
         <v>9830</v>
       </c>
       <c r="C84" t="n">
-        <v>9835</v>
+        <v>9830</v>
       </c>
       <c r="D84" t="n">
-        <v>9835</v>
+        <v>9830</v>
       </c>
       <c r="E84" t="n">
         <v>9830</v>
       </c>
       <c r="F84" t="n">
-        <v>51.4655</v>
+        <v>0.1019</v>
       </c>
       <c r="G84" t="n">
-        <v>9778.833333333334</v>
+        <v>9778.333333333334</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,7 +2820,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9835</v>
+        <v>9830</v>
       </c>
       <c r="C85" t="n">
         <v>9835</v>
@@ -2575,15 +2829,18 @@
         <v>9835</v>
       </c>
       <c r="E85" t="n">
-        <v>9835</v>
+        <v>9830</v>
       </c>
       <c r="F85" t="n">
-        <v>17.3</v>
+        <v>51.4655</v>
       </c>
       <c r="G85" t="n">
-        <v>9779.416666666666</v>
+        <v>9778.833333333334</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2604,12 +2861,15 @@
         <v>9835</v>
       </c>
       <c r="F86" t="n">
-        <v>9.0861</v>
+        <v>17.3</v>
       </c>
       <c r="G86" t="n">
-        <v>9780.666666666666</v>
+        <v>9779.416666666666</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9820</v>
+        <v>9835</v>
       </c>
       <c r="C87" t="n">
-        <v>9820</v>
+        <v>9835</v>
       </c>
       <c r="D87" t="n">
-        <v>9820</v>
+        <v>9835</v>
       </c>
       <c r="E87" t="n">
-        <v>9820</v>
+        <v>9835</v>
       </c>
       <c r="F87" t="n">
-        <v>9.242800000000001</v>
+        <v>9.0861</v>
       </c>
       <c r="G87" t="n">
-        <v>9781.416666666666</v>
+        <v>9780.666666666666</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9835</v>
+        <v>9820</v>
       </c>
       <c r="C88" t="n">
         <v>9820</v>
       </c>
       <c r="D88" t="n">
-        <v>9835</v>
+        <v>9820</v>
       </c>
       <c r="E88" t="n">
         <v>9820</v>
       </c>
       <c r="F88" t="n">
-        <v>9.826000000000001</v>
+        <v>9.242800000000001</v>
       </c>
       <c r="G88" t="n">
-        <v>9782.75</v>
+        <v>9781.416666666666</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9820</v>
+        <v>9835</v>
       </c>
       <c r="C89" t="n">
         <v>9820</v>
       </c>
       <c r="D89" t="n">
-        <v>9820</v>
+        <v>9835</v>
       </c>
       <c r="E89" t="n">
         <v>9820</v>
       </c>
       <c r="F89" t="n">
-        <v>8.147</v>
+        <v>9.826000000000001</v>
       </c>
       <c r="G89" t="n">
-        <v>9783.5</v>
+        <v>9782.75</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9830</v>
+        <v>9820</v>
       </c>
       <c r="C90" t="n">
-        <v>9830</v>
+        <v>9820</v>
       </c>
       <c r="D90" t="n">
-        <v>9830</v>
+        <v>9820</v>
       </c>
       <c r="E90" t="n">
-        <v>9830</v>
+        <v>9820</v>
       </c>
       <c r="F90" t="n">
-        <v>13.0202</v>
+        <v>8.147</v>
       </c>
       <c r="G90" t="n">
-        <v>9784.333333333334</v>
+        <v>9783.5</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9820</v>
+        <v>9830</v>
       </c>
       <c r="C91" t="n">
-        <v>9820</v>
+        <v>9830</v>
       </c>
       <c r="D91" t="n">
-        <v>9820</v>
+        <v>9830</v>
       </c>
       <c r="E91" t="n">
-        <v>9820</v>
+        <v>9830</v>
       </c>
       <c r="F91" t="n">
-        <v>27.8045</v>
+        <v>13.0202</v>
       </c>
       <c r="G91" t="n">
-        <v>9785.166666666666</v>
+        <v>9784.333333333334</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>9820</v>
       </c>
       <c r="F92" t="n">
-        <v>4.53</v>
+        <v>27.8045</v>
       </c>
       <c r="G92" t="n">
-        <v>9786.166666666666</v>
+        <v>9785.166666666666</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>9820</v>
       </c>
       <c r="F93" t="n">
-        <v>7.5386</v>
+        <v>4.53</v>
       </c>
       <c r="G93" t="n">
-        <v>9787</v>
+        <v>9786.166666666666</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9830</v>
+        <v>9820</v>
       </c>
       <c r="C94" t="n">
-        <v>9835</v>
+        <v>9820</v>
       </c>
       <c r="D94" t="n">
-        <v>9835</v>
+        <v>9820</v>
       </c>
       <c r="E94" t="n">
-        <v>9830</v>
+        <v>9820</v>
       </c>
       <c r="F94" t="n">
-        <v>59.8086</v>
+        <v>7.5386</v>
       </c>
       <c r="G94" t="n">
-        <v>9788.083333333334</v>
+        <v>9787</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,7 +3110,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9835</v>
+        <v>9830</v>
       </c>
       <c r="C95" t="n">
         <v>9835</v>
@@ -2835,15 +3119,18 @@
         <v>9835</v>
       </c>
       <c r="E95" t="n">
-        <v>9835</v>
+        <v>9830</v>
       </c>
       <c r="F95" t="n">
-        <v>7.2139</v>
+        <v>59.8086</v>
       </c>
       <c r="G95" t="n">
-        <v>9789.083333333334</v>
+        <v>9788.083333333334</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>9835</v>
       </c>
       <c r="F96" t="n">
-        <v>73.9371</v>
+        <v>7.2139</v>
       </c>
       <c r="G96" t="n">
-        <v>9790.166666666666</v>
+        <v>9789.083333333334</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9840</v>
+        <v>9835</v>
       </c>
       <c r="C97" t="n">
-        <v>9840</v>
+        <v>9835</v>
       </c>
       <c r="D97" t="n">
-        <v>9840</v>
+        <v>9835</v>
       </c>
       <c r="E97" t="n">
-        <v>9840</v>
+        <v>9835</v>
       </c>
       <c r="F97" t="n">
-        <v>11.037</v>
+        <v>73.9371</v>
       </c>
       <c r="G97" t="n">
-        <v>9791.75</v>
+        <v>9790.166666666666</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,7 +3197,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9835</v>
+        <v>9840</v>
       </c>
       <c r="C98" t="n">
         <v>9840</v>
@@ -2913,15 +3206,18 @@
         <v>9840</v>
       </c>
       <c r="E98" t="n">
-        <v>9835</v>
+        <v>9840</v>
       </c>
       <c r="F98" t="n">
-        <v>119.8529</v>
+        <v>11.037</v>
       </c>
       <c r="G98" t="n">
-        <v>9793.5</v>
+        <v>9791.75</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2933,21 +3229,24 @@
         <v>9835</v>
       </c>
       <c r="C99" t="n">
-        <v>9835</v>
+        <v>9840</v>
       </c>
       <c r="D99" t="n">
-        <v>9835</v>
+        <v>9840</v>
       </c>
       <c r="E99" t="n">
         <v>9835</v>
       </c>
       <c r="F99" t="n">
-        <v>34</v>
+        <v>119.8529</v>
       </c>
       <c r="G99" t="n">
-        <v>9795.166666666666</v>
+        <v>9793.5</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9805</v>
+        <v>9835</v>
       </c>
       <c r="C100" t="n">
-        <v>9805</v>
+        <v>9835</v>
       </c>
       <c r="D100" t="n">
-        <v>9805</v>
+        <v>9835</v>
       </c>
       <c r="E100" t="n">
-        <v>9805</v>
+        <v>9835</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G100" t="n">
-        <v>9796.333333333334</v>
+        <v>9795.166666666666</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2985,21 +3287,24 @@
         <v>9805</v>
       </c>
       <c r="C101" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="D101" t="n">
         <v>9805</v>
       </c>
       <c r="E101" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="F101" t="n">
-        <v>48.0666</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>9797.5</v>
+        <v>9796.333333333334</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="C102" t="n">
         <v>9800</v>
       </c>
       <c r="D102" t="n">
-        <v>9800</v>
+        <v>9805</v>
       </c>
       <c r="E102" t="n">
         <v>9800</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>48.0666</v>
       </c>
       <c r="G102" t="n">
-        <v>9798.416666666666</v>
+        <v>9797.5</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>9800</v>
       </c>
       <c r="F103" t="n">
-        <v>53.2056</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>9799.083333333334</v>
+        <v>9798.416666666666</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9765</v>
+        <v>9800</v>
       </c>
       <c r="C104" t="n">
-        <v>9735</v>
+        <v>9800</v>
       </c>
       <c r="D104" t="n">
-        <v>9765</v>
+        <v>9800</v>
       </c>
       <c r="E104" t="n">
-        <v>9735</v>
+        <v>9800</v>
       </c>
       <c r="F104" t="n">
-        <v>424.407</v>
+        <v>53.2056</v>
       </c>
       <c r="G104" t="n">
-        <v>9798.583333333334</v>
+        <v>9799.083333333334</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9785</v>
+        <v>9765</v>
       </c>
       <c r="C105" t="n">
-        <v>9785</v>
+        <v>9735</v>
       </c>
       <c r="D105" t="n">
-        <v>9785</v>
+        <v>9765</v>
       </c>
       <c r="E105" t="n">
-        <v>9785</v>
+        <v>9735</v>
       </c>
       <c r="F105" t="n">
-        <v>6.4606</v>
+        <v>424.407</v>
       </c>
       <c r="G105" t="n">
-        <v>9798.916666666666</v>
+        <v>9798.583333333334</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9790</v>
+        <v>9785</v>
       </c>
       <c r="C106" t="n">
-        <v>9795</v>
+        <v>9785</v>
       </c>
       <c r="D106" t="n">
-        <v>9795</v>
+        <v>9785</v>
       </c>
       <c r="E106" t="n">
-        <v>9790</v>
+        <v>9785</v>
       </c>
       <c r="F106" t="n">
-        <v>9.99732133741705</v>
+        <v>6.4606</v>
       </c>
       <c r="G106" t="n">
-        <v>9799.666666666666</v>
+        <v>9798.916666666666</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9775</v>
+        <v>9790</v>
       </c>
       <c r="C107" t="n">
-        <v>9775</v>
+        <v>9795</v>
       </c>
       <c r="D107" t="n">
-        <v>9775</v>
+        <v>9795</v>
       </c>
       <c r="E107" t="n">
-        <v>9775</v>
+        <v>9790</v>
       </c>
       <c r="F107" t="n">
-        <v>3.6579</v>
+        <v>9.99732133741705</v>
       </c>
       <c r="G107" t="n">
-        <v>9800.75</v>
+        <v>9799.666666666666</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9730</v>
+        <v>9775</v>
       </c>
       <c r="C108" t="n">
-        <v>9730</v>
+        <v>9775</v>
       </c>
       <c r="D108" t="n">
-        <v>9730</v>
+        <v>9775</v>
       </c>
       <c r="E108" t="n">
-        <v>9730</v>
+        <v>9775</v>
       </c>
       <c r="F108" t="n">
-        <v>27.2554</v>
+        <v>3.6579</v>
       </c>
       <c r="G108" t="n">
-        <v>9801</v>
+        <v>9800.75</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3202,12 +3528,15 @@
         <v>9730</v>
       </c>
       <c r="F109" t="n">
-        <v>1.1</v>
+        <v>27.2554</v>
       </c>
       <c r="G109" t="n">
-        <v>9800.833333333334</v>
+        <v>9801</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9720</v>
+        <v>9730</v>
       </c>
       <c r="C110" t="n">
-        <v>9745</v>
+        <v>9730</v>
       </c>
       <c r="D110" t="n">
-        <v>9745</v>
+        <v>9730</v>
       </c>
       <c r="E110" t="n">
-        <v>9720</v>
+        <v>9730</v>
       </c>
       <c r="F110" t="n">
-        <v>21.5611</v>
+        <v>1.1</v>
       </c>
       <c r="G110" t="n">
-        <v>9800.75</v>
+        <v>9800.833333333334</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9760</v>
+        <v>9720</v>
       </c>
       <c r="C111" t="n">
-        <v>9775</v>
+        <v>9745</v>
       </c>
       <c r="D111" t="n">
-        <v>9775</v>
+        <v>9745</v>
       </c>
       <c r="E111" t="n">
-        <v>9760</v>
+        <v>9720</v>
       </c>
       <c r="F111" t="n">
-        <v>29.6403</v>
+        <v>21.5611</v>
       </c>
       <c r="G111" t="n">
-        <v>9801.333333333334</v>
+        <v>9800.75</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9725</v>
+        <v>9760</v>
       </c>
       <c r="C112" t="n">
-        <v>9720</v>
+        <v>9775</v>
       </c>
       <c r="D112" t="n">
-        <v>9725</v>
+        <v>9775</v>
       </c>
       <c r="E112" t="n">
-        <v>9720</v>
+        <v>9760</v>
       </c>
       <c r="F112" t="n">
-        <v>96.98260000000001</v>
+        <v>29.6403</v>
       </c>
       <c r="G112" t="n">
-        <v>9801</v>
+        <v>9801.333333333334</v>
       </c>
       <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9720</v>
+        <v>9725</v>
       </c>
       <c r="C113" t="n">
         <v>9720</v>
       </c>
       <c r="D113" t="n">
-        <v>9720</v>
+        <v>9725</v>
       </c>
       <c r="E113" t="n">
         <v>9720</v>
       </c>
       <c r="F113" t="n">
-        <v>33.915</v>
+        <v>96.98260000000001</v>
       </c>
       <c r="G113" t="n">
-        <v>9800.416666666666</v>
+        <v>9801</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,544 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9780</v>
+        <v>9720</v>
       </c>
       <c r="C114" t="n">
-        <v>9780</v>
+        <v>9720</v>
       </c>
       <c r="D114" t="n">
-        <v>9780</v>
+        <v>9720</v>
       </c>
       <c r="E114" t="n">
-        <v>9780</v>
+        <v>9720</v>
       </c>
       <c r="F114" t="n">
-        <v>0.1</v>
+        <v>33.915</v>
       </c>
       <c r="G114" t="n">
-        <v>9801</v>
+        <v>9800.416666666666</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>9775</v>
-      </c>
-      <c r="C115" t="n">
-        <v>9775</v>
-      </c>
-      <c r="D115" t="n">
-        <v>9775</v>
-      </c>
-      <c r="E115" t="n">
-        <v>9775</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G115" t="n">
-        <v>9801.166666666666</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>9775</v>
-      </c>
-      <c r="C116" t="n">
-        <v>9775</v>
-      </c>
-      <c r="D116" t="n">
-        <v>9775</v>
-      </c>
-      <c r="E116" t="n">
-        <v>9775</v>
-      </c>
-      <c r="F116" t="n">
-        <v>49.9999</v>
-      </c>
-      <c r="G116" t="n">
-        <v>9801.916666666666</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>9730</v>
-      </c>
-      <c r="C117" t="n">
-        <v>9730</v>
-      </c>
-      <c r="D117" t="n">
-        <v>9730</v>
-      </c>
-      <c r="E117" t="n">
-        <v>9730</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1.1642</v>
-      </c>
-      <c r="G117" t="n">
-        <v>9801.25</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>9775</v>
-      </c>
-      <c r="C118" t="n">
-        <v>9785</v>
-      </c>
-      <c r="D118" t="n">
-        <v>9785</v>
-      </c>
-      <c r="E118" t="n">
-        <v>9775</v>
-      </c>
-      <c r="F118" t="n">
-        <v>102.2360879918242</v>
-      </c>
-      <c r="G118" t="n">
-        <v>9801.5</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>9720</v>
-      </c>
-      <c r="C119" t="n">
-        <v>9720</v>
-      </c>
-      <c r="D119" t="n">
-        <v>9720</v>
-      </c>
-      <c r="E119" t="n">
-        <v>9720</v>
-      </c>
-      <c r="F119" t="n">
-        <v>2.1902</v>
-      </c>
-      <c r="G119" t="n">
-        <v>9800.333333333334</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C120" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D120" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E120" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F120" t="n">
-        <v>61.2007</v>
-      </c>
-      <c r="G120" t="n">
-        <v>9798.833333333334</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C121" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D121" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E121" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F121" t="n">
-        <v>35.3545</v>
-      </c>
-      <c r="G121" t="n">
-        <v>9797.333333333334</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C122" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D122" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E122" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F122" t="n">
-        <v>17.8801</v>
-      </c>
-      <c r="G122" t="n">
-        <v>9795.666666666666</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>9695</v>
-      </c>
-      <c r="C123" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D123" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E123" t="n">
-        <v>9695</v>
-      </c>
-      <c r="F123" t="n">
-        <v>7.0939</v>
-      </c>
-      <c r="G123" t="n">
-        <v>9793.75</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>9705</v>
-      </c>
-      <c r="C124" t="n">
-        <v>9705</v>
-      </c>
-      <c r="D124" t="n">
-        <v>9705</v>
-      </c>
-      <c r="E124" t="n">
-        <v>9705</v>
-      </c>
-      <c r="F124" t="n">
-        <v>26.6558</v>
-      </c>
-      <c r="G124" t="n">
-        <v>9792.083333333334</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>9705</v>
-      </c>
-      <c r="C125" t="n">
-        <v>9705</v>
-      </c>
-      <c r="D125" t="n">
-        <v>9705</v>
-      </c>
-      <c r="E125" t="n">
-        <v>9705</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.1763</v>
-      </c>
-      <c r="G125" t="n">
-        <v>9790.083333333334</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C126" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D126" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E126" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.512</v>
-      </c>
-      <c r="G126" t="n">
-        <v>9788.333333333334</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>9705</v>
-      </c>
-      <c r="C127" t="n">
-        <v>9705</v>
-      </c>
-      <c r="D127" t="n">
-        <v>9705</v>
-      </c>
-      <c r="E127" t="n">
-        <v>9705</v>
-      </c>
-      <c r="F127" t="n">
-        <v>10.299</v>
-      </c>
-      <c r="G127" t="n">
-        <v>9786.333333333334</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>9705</v>
-      </c>
-      <c r="C128" t="n">
-        <v>9705</v>
-      </c>
-      <c r="D128" t="n">
-        <v>9705</v>
-      </c>
-      <c r="E128" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F128" t="n">
-        <v>7.2973</v>
-      </c>
-      <c r="G128" t="n">
-        <v>9784.5</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>9705</v>
-      </c>
-      <c r="C129" t="n">
-        <v>9705</v>
-      </c>
-      <c r="D129" t="n">
-        <v>9705</v>
-      </c>
-      <c r="E129" t="n">
-        <v>9705</v>
-      </c>
-      <c r="F129" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="G129" t="n">
-        <v>9782.5</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>9705</v>
-      </c>
-      <c r="C130" t="n">
-        <v>9705</v>
-      </c>
-      <c r="D130" t="n">
-        <v>9705</v>
-      </c>
-      <c r="E130" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F130" t="n">
-        <v>35.3838</v>
-      </c>
-      <c r="G130" t="n">
-        <v>9780.583333333334</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C131" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D131" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E131" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F131" t="n">
-        <v>136.39</v>
-      </c>
-      <c r="G131" t="n">
-        <v>9779</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>9695</v>
-      </c>
-      <c r="C132" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D132" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E132" t="n">
-        <v>9695</v>
-      </c>
-      <c r="F132" t="n">
-        <v>94.6148</v>
-      </c>
-      <c r="G132" t="n">
-        <v>9777.083333333334</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>9695</v>
-      </c>
-      <c r="C133" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D133" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E133" t="n">
-        <v>9695</v>
-      </c>
-      <c r="F133" t="n">
-        <v>32.0909</v>
-      </c>
-      <c r="G133" t="n">
-        <v>9775.5</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>9705</v>
-      </c>
-      <c r="C134" t="n">
-        <v>9705</v>
-      </c>
-      <c r="D134" t="n">
-        <v>9705</v>
-      </c>
-      <c r="E134" t="n">
-        <v>9705</v>
-      </c>
-      <c r="F134" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="G134" t="n">
-        <v>9774.166666666666</v>
-      </c>
-      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
